--- a/data/output/candidate_cv_one_pager.xlsx
+++ b/data/output/candidate_cv_one_pager.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Functional analyst with over 5 years of experience in **SAP** system support and improvement, focusing on the implementation of enhancements and functionalities, **process automation**, and incident management. Experienced in leading integration testing, working in **agile** environments, and collaborating with global technical and functional teams. Capable of translating business requirements into clear technical specifications, managing end-to-end implementations.</t>
+          <t>Functional analyst with over 5 years of experience in support and enhancement of **SAP** systems (**MM**, **FI**, **PM**), focusing on implementation of improvements and functionalities, process automation, and incident management. Experienced in leading integration testing, working in **Agile** environments, and collaborating with global technical and functional teams. Capable of translating business requirements into clear technical specifications, managing end-to-end implementations.</t>
         </is>
       </c>
     </row>
@@ -503,8 +503,7 @@
       <c r="B6" t="inlineStr">
         <is>
           <t>Energy
-Consumer Goods &amp; Services
-Software &amp; Platforms</t>
+Consumer Goods &amp; Services</t>
         </is>
       </c>
     </row>
@@ -516,14 +515,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAP FI
-SAP MM
-SAP PM
-Functional design
+          <t>SAP FI configuration
 Process automation
 Incident management
 Integration testing
-User acceptance testing (UAT)</t>
+Functional design
+User acceptance testing (UAT)
+Data management</t>
         </is>
       </c>
     </row>
@@ -536,7 +534,7 @@
       <c r="B8" t="inlineStr">
         <is>
           <t>First Certificate in English – FCE
-Captton curso SAP MM-SAD</t>
+Captton course SAP MM-SAD</t>
         </is>
       </c>
     </row>
@@ -563,7 +561,7 @@
           <t>SAP FI Functional Analyst  
 **Gestión** y **configuración funcional** en **SAP FI**, incluyendo activos fijos y cuentas contables.  
 **Seguimiento** de incidencias y **análisis de errores** en procesos automatizados.  
-**Colaboración** con equipos técnicos y globales para la mejora continua.</t>
+**Colaboración** con equipos técnicos y globales para la mejora continua del sistema.</t>
         </is>
       </c>
     </row>
@@ -576,10 +574,9 @@
       <c r="B11" t="inlineStr">
         <is>
           <t>Acquisition and Corporate SAP Analyst  
-**Liderazgo** en la implementación de mejoras y nuevas funcionalidades en **SAP**, abarcando diseño funcional y coordinación de desarrollo.  
+**Liderazgo** en la implementación de mejoras y nuevas funcionalidades en **SAP**, incluyendo diseño funcional y coordinación de desarrollo.  
 **Conducción** de reuniones con áreas de negocio para el relevamiento de requerimientos y **optimización** de procesos.  
-**Diseño** y **ejecución** de mejoras en **SAP** y sus interfaces, incluyendo **FIORI** y **ARIBA**.  
-**Testing** de migraciones API y nuevas funcionalidades, incluyendo documentación técnica y **UATs**.</t>
+**Diseño** y **ejecución** de mejoras en **SAP** y sus interfaces como **FIORI** y **ARIBA**.</t>
         </is>
       </c>
     </row>
@@ -592,8 +589,8 @@
       <c r="B12" t="inlineStr">
         <is>
           <t>Application Development Associate Junior  
-**Soporte** en **SAP MM**, resolviendo incidentes y atención al usuario.  
-**Participación** en el proyecto de implementación de **SAP MM** y **PM**, enfocándose en la migración de datos.</t>
+**Soporte** en **SAP MM**: resolución de incidentes y atención al usuario.  
+**Participación** en el proyecto de implementación de **SAP MM** y **PM**, incluyendo migración de datos en la industria petrolera.</t>
         </is>
       </c>
     </row>
@@ -606,7 +603,8 @@
       <c r="B13" t="inlineStr">
         <is>
           <t>IT Trainee  
-**Soporte** a la interfaz **SAP/GEP**, incluyendo monitoreo de errores y **testing** de mejoras.</t>
+**Soporte** a la interfaz **SAP/GEP**: monitoreo de errores y **testing** de mejoras.  
+**Colaboración** en la mejora de procesos y soporte administrativo.</t>
         </is>
       </c>
     </row>
